--- a/数据整理/stocks/港股/01579-颐海国际.xlsx
+++ b/数据整理/stocks/港股/01579-颐海国际.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006675</t>
+          <t>005827</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票A</t>
+          <t>易方达蓝筹精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>677.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.7842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006676</t>
+          <t>006345</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票C</t>
+          <t>景顺长城集英成长两年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>81.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3404</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>470888</t>
+          <t>008545</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
+          <t>泓德丰润三年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.17</t>
+          <t>126.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.0282</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008972</t>
+          <t>007412</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数C</t>
+          <t>景顺长城绩优成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>82.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.6215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>120.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.1858</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005810</t>
+          <t>008985</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+          <t>东方红启东三年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>82.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3524</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005811</t>
+          <t>501071</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+          <t>泓德三年运作丰泽封闭</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>28.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4219</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006345</t>
+          <t>007110</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城集英成长两年定期开放混合</t>
+          <t>国投瑞银港股通价值发现混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0906</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>011081</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>国投瑞银港股通混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0906</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008303</t>
+          <t>006921</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>宝盈龙头优选股票A</t>
+          <t>南方智诚混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>9.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7748</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008304</t>
+          <t>009983</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>宝盈龙头优选股票C</t>
+          <t>永赢港股通品质生活慧选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>21.88</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7746</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008709</t>
+          <t>005810</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银河龙头精选股票</t>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>59.51</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6098</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004996</t>
+          <t>010010</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+          <t>国投瑞银港股通6个月定期开放股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5364</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>009064</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>鹏扬景沃六个月持有期混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>55.73</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>005583</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
+          <t>易方达港股通红利灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>68.73</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009064</t>
+          <t>005228</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏扬景沃六个月持有期混合A</t>
+          <t>汇添富港股通专注成长混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27.56</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -950,15 +1120,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>27.56</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>0.72</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>10</v>
       </c>
     </row>
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007110</t>
+          <t>470888</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国投瑞银港股通价值发现混合</t>
+          <t>汇添富香港优势精选混合 (QDII)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008985</t>
+          <t>008303</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东方红启东三年持有期混合</t>
+          <t>宝盈龙头优选股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>98.16</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011081</t>
+          <t>008709</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国投瑞银港股通混合C</t>
+          <t>银河龙头精选股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>501071</t>
+          <t>002443</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>泓德三年运作丰泽封闭</t>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002443</t>
+          <t>006537</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>前海开源沪港深龙头精选灵活配置混合</t>
+          <t>恒生前海港股通精选混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005228</t>
+          <t>007151</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>汇添富港股通专注成长混合</t>
+          <t>前海开源沪港深聚瑞混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>86.36</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>005811</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1164,25 +1414,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005583</t>
+          <t>008381</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>易方达港股通红利灵活配置混合</t>
+          <t>前海开源新兴产业混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>91.52</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005701</t>
+          <t>006675</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上投摩根香港精选港股通混合</t>
+          <t>宝盈品牌消费股票A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005827</t>
+          <t>008304</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>易方达蓝筹精选混合</t>
+          <t>宝盈龙头优选股票C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>006537</t>
+          <t>005701</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恒生前海港股通精选混合</t>
+          <t>上投摩根香港精选港股通混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>86.87</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006921</t>
+          <t>006676</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>南方智诚混合</t>
+          <t>宝盈品牌消费股票C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>91.54</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1304,26 +1604,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>007151</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>前海开源沪港深聚瑞混合</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>8.38</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1332,26 +1642,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>007412</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>景顺长城绩优成长混合</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1360,26 +1680,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>008381</t>
+          <t>008972</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>前海开源新兴产业混合</t>
+          <t>大成恒生综合中小型股指数C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>8</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1388,26 +1718,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>008545</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>泓德丰润三年持有期混合</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1416,26 +1756,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>501023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>80.44</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>5</v>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,15 +1820,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007110</t>
+          <t>007412</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银港股通价值发现混合</t>
+          <t>景顺长城绩优成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.81</t>
+          <t>141.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6735</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501071</t>
+          <t>006345</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泓德三年运作丰泽封闭</t>
+          <t>景顺长城集英成长两年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>75.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002443</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深龙头精选灵活配置混合</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>107.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.0565</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>010864</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>泓德卓远混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>66.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1733</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>501071</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
+          <t>泓德三年运作丰泽封闭</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.70</t>
+          <t>22.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0146</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006345</t>
+          <t>010865</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城集英成长两年定期开放混合</t>
+          <t>泓德卓远混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>97.73</t>
+          <t>20.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>470888</t>
+          <t>007110</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
+          <t>国投瑞银港股通价值发现混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>79.75</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>71.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7984</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007151</t>
+          <t>010010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源沪港深聚瑞混合</t>
+          <t>国投瑞银港股通6个月定期开放股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3773</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007412</t>
+          <t>470888</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城绩优成长混合</t>
+          <t>汇添富香港优势精选混合 (QDII)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010864</t>
+          <t>002443</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泓德卓远混合A</t>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010865</t>
+          <t>007151</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泓德卓远混合C</t>
+          <t>前海开源沪港深聚瑞混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01579-颐海国际.xlsx
+++ b/数据整理/stocks/港股/01579-颐海国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2265,4 +2266,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>139.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5545</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0334</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9504</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9354</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01579-颐海国际.xlsx
+++ b/数据整理/stocks/港股/01579-颐海国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2550,4 +2551,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8743</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6066</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2489</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8499</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0912</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0352</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8889</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3254</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01579-颐海国际.xlsx
+++ b/数据整理/stocks/港股/01579-颐海国际.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2949,4 +2950,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>58.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01579-颐海国际.xlsx
+++ b/数据整理/stocks/港股/01579-颐海国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2958,7 +2959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2969,17 +2970,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2989,14 +3010,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.99</v>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7990</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3005,14 +3048,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.15</v>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6502</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3021,14 +3086,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.52</v>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3117</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3037,13 +3124,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7224</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.380000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>34</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>58.66</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01579-颐海国际.xlsx
+++ b/数据整理/stocks/港股/01579-颐海国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3243,7 +3244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3254,17 +3255,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3274,14 +3295,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.380000000000001</v>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6405</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3290,14 +3333,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.99</v>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3306,14 +3371,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.15</v>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3326</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3322,14 +3409,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.52</v>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4177</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3338,13 +3447,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.380000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>34</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>58.66</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01579-颐海国际.xlsx
+++ b/数据整理/stocks/港股/01579-颐海国际.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3490,7 +3491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3501,17 +3502,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3521,14 +3542,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.02</v>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3537,14 +3580,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0834</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3553,14 +3618,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.99</v>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7527</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3569,14 +3656,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5468</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.15</v>
       </c>
     </row>
     <row r="6">
@@ -3585,14 +3694,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>26.52</v>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3601,13 +3732,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.380000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>34</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>58.66</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01579-颐海国际.xlsx
+++ b/数据整理/stocks/港股/01579-颐海国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>6.65</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>5.02</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>9.380000000000001</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>18.99</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>19.15</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>26.52</v>
+        <v>19.15</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>34</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>58.66</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2916</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1451,7 +1562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1849,7 +1960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2133,7 +2244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2607,7 +2718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01579-颐海国际.xlsx
+++ b/数据整理/stocks/港股/01579-颐海国际.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>1.29</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6.65</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>5.02</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>9.380000000000001</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>18.99</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>19.15</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>26.52</v>
+        <v>19.15</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>34</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>58.66</v>
       </c>
     </row>
@@ -616,7 +633,2169 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005827</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>677.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.7842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3404</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>126.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.0282</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.6215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>120.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.1858</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3524</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4219</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0906</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0906</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7748</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7746</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6098</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5364</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>55.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2697</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2211</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1215</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012406</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5884</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5526</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安沪港深机会混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012407</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014987</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>54.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016385</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢消费鑫选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016384</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢消费鑫选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014988</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>54.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -710,7 +2889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1032,7 +3211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1278,7 +3457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1562,7 +3741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1960,7 +4139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2244,7 +4423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2716,1352 +4895,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005827</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达蓝筹精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>677.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>20.7842</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006345</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城集英成长两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>81.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>7.3404</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008545</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泓德丰润三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>126.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>7.0282</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007412</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城绩优成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>82.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>6.6215</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005395</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泓德臻远回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>120.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>6.1858</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008985</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方红启东三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>82.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.3524</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501071</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泓德三年运作丰泽封闭</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>28.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.4219</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007110</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通价值发现混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>16.83</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.79</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.0906</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011081</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>16.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.79</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.0906</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006921</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方智诚混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7748</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009983</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>永赢港股通品质生活慧选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>21.88</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.44</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7746</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005810</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方瑞祥一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.6098</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010010</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>68.73</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.5364</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009064</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏扬景沃六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>55.73</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>27.56</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.4013</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005583</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达港股通红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3778</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005228</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇添富港股通专注成长混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>86.36</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2660</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009065</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏扬景沃六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>22.71</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>27.56</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1635</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>470888</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>83.17</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1566</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008303</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1497</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008709</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>银河龙头精选股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>59.51</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1102</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002443</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>前海开源沪港深龙头精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0759</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006537</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>恒生前海港股通精选混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0705</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007151</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>前海开源沪港深聚瑞混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>8.38</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0570</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005811</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>南方瑞祥一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0543</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008381</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>前海开源新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0542</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006675</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0410</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008304</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005701</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>上投摩根香港精选港股通混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006676</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>008972</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>501023</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.16</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>